--- a/fond.xlsx
+++ b/fond.xlsx
@@ -9,10 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14250"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14250" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,12 +26,66 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+  <si>
+    <t xml:space="preserve">vinst </t>
+  </si>
+  <si>
+    <t>Från</t>
+  </si>
+  <si>
+    <t>To</t>
+  </si>
+  <si>
+    <t>diff</t>
+  </si>
+  <si>
+    <t>höjning %</t>
+  </si>
+  <si>
+    <t>insats</t>
+  </si>
+  <si>
+    <t>grr</t>
+  </si>
+  <si>
+    <t>höjning  grr</t>
+  </si>
+  <si>
+    <t>vinst</t>
+  </si>
+  <si>
+    <t>år</t>
+  </si>
+  <si>
+    <t>Peng</t>
+  </si>
+  <si>
+    <t>Månad Spar</t>
+  </si>
+  <si>
+    <t>init Spar</t>
+  </si>
+  <si>
+    <t>förväntat ränta</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;kr&quot;_-;\-* #,##0.00\ &quot;kr&quot;_-;_-* &quot;-&quot;??\ &quot;kr&quot;_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="_-* #,##0\ &quot;kr&quot;_-;\-* #,##0\ &quot;kr&quot;_-;_-* &quot;-&quot;??\ &quot;kr&quot;_-;_-@_-"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -55,13 +111,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -342,7 +401,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="F5:L17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
@@ -504,4 +563,403 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:M7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="12" max="12" width="10.26953125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="L3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M3">
+        <f>I5-I4</f>
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>2000</v>
+      </c>
+      <c r="E4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4">
+        <v>800</v>
+      </c>
+      <c r="H4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>6850</v>
+      </c>
+      <c r="L4" t="s">
+        <v>4</v>
+      </c>
+      <c r="M4">
+        <f>M3/I4</f>
+        <v>0.16788321167883211</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="E5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5">
+        <v>10</v>
+      </c>
+      <c r="H5" t="s">
+        <v>2</v>
+      </c>
+      <c r="I5">
+        <v>8000</v>
+      </c>
+      <c r="L5" t="s">
+        <v>7</v>
+      </c>
+      <c r="M5">
+        <f>M4*F5</f>
+        <v>1.6788321167883211</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="E7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7">
+        <f>F4*M5</f>
+        <v>1343.0656934306569</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:I33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.6328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3">
+        <v>2000</v>
+      </c>
+      <c r="G3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4">
+        <v>30000</v>
+      </c>
+      <c r="G4">
+        <v>36</v>
+      </c>
+      <c r="I4" s="1">
+        <f>(C4+12*$C$3)*($C$5+1)</f>
+        <v>56160</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5">
+        <v>0.04</v>
+      </c>
+      <c r="G5">
+        <v>37</v>
+      </c>
+      <c r="I5" s="1">
+        <f>(I4+12*$C$3)*($C$5+1)</f>
+        <v>83366.400000000009</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="G6">
+        <v>38</v>
+      </c>
+      <c r="I6" s="1">
+        <f t="shared" ref="I6:I33" si="0">(I5+12*$C$3)*($C$5+1)</f>
+        <v>111661.05600000001</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="G7">
+        <v>39</v>
+      </c>
+      <c r="I7" s="1">
+        <f t="shared" si="0"/>
+        <v>141087.49824000002</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="G8">
+        <v>40</v>
+      </c>
+      <c r="I8" s="1">
+        <f t="shared" si="0"/>
+        <v>171690.99816960003</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="G9">
+        <v>41</v>
+      </c>
+      <c r="I9" s="1">
+        <f t="shared" si="0"/>
+        <v>203518.63809638403</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="G10">
+        <v>42</v>
+      </c>
+      <c r="I10" s="1">
+        <f t="shared" si="0"/>
+        <v>236619.38362023942</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="G11">
+        <v>43</v>
+      </c>
+      <c r="I11" s="1">
+        <f t="shared" si="0"/>
+        <v>271044.15896504902</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="G12">
+        <v>44</v>
+      </c>
+      <c r="I12" s="1">
+        <f t="shared" si="0"/>
+        <v>306845.925323651</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="G13">
+        <v>45</v>
+      </c>
+      <c r="I13" s="1">
+        <f t="shared" si="0"/>
+        <v>344079.76233659702</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="G14">
+        <v>46</v>
+      </c>
+      <c r="I14" s="1">
+        <f t="shared" si="0"/>
+        <v>382802.95283006091</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="G15">
+        <v>47</v>
+      </c>
+      <c r="I15" s="1">
+        <f t="shared" si="0"/>
+        <v>423075.07094326336</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="G16">
+        <v>48</v>
+      </c>
+      <c r="I16" s="1">
+        <f t="shared" si="0"/>
+        <v>464958.07378099393</v>
+      </c>
+    </row>
+    <row r="17" spans="7:9" x14ac:dyDescent="0.35">
+      <c r="G17">
+        <v>49</v>
+      </c>
+      <c r="I17" s="1">
+        <f t="shared" si="0"/>
+        <v>508516.3967322337</v>
+      </c>
+    </row>
+    <row r="18" spans="7:9" x14ac:dyDescent="0.35">
+      <c r="G18">
+        <v>50</v>
+      </c>
+      <c r="I18" s="1">
+        <f t="shared" si="0"/>
+        <v>553817.05260152312</v>
+      </c>
+    </row>
+    <row r="19" spans="7:9" x14ac:dyDescent="0.35">
+      <c r="G19">
+        <v>51</v>
+      </c>
+      <c r="I19" s="1">
+        <f t="shared" si="0"/>
+        <v>600929.73470558401</v>
+      </c>
+    </row>
+    <row r="20" spans="7:9" x14ac:dyDescent="0.35">
+      <c r="G20">
+        <v>52</v>
+      </c>
+      <c r="I20" s="1">
+        <f t="shared" si="0"/>
+        <v>649926.92409380735</v>
+      </c>
+    </row>
+    <row r="21" spans="7:9" x14ac:dyDescent="0.35">
+      <c r="G21">
+        <v>53</v>
+      </c>
+      <c r="I21" s="1">
+        <f t="shared" si="0"/>
+        <v>700884.00105755962</v>
+      </c>
+    </row>
+    <row r="22" spans="7:9" x14ac:dyDescent="0.35">
+      <c r="G22">
+        <v>54</v>
+      </c>
+      <c r="I22" s="1">
+        <f t="shared" si="0"/>
+        <v>753879.36109986203</v>
+      </c>
+    </row>
+    <row r="23" spans="7:9" x14ac:dyDescent="0.35">
+      <c r="G23">
+        <v>55</v>
+      </c>
+      <c r="I23" s="1">
+        <f t="shared" si="0"/>
+        <v>808994.53554385656</v>
+      </c>
+    </row>
+    <row r="24" spans="7:9" x14ac:dyDescent="0.35">
+      <c r="G24">
+        <v>56</v>
+      </c>
+      <c r="I24" s="1">
+        <f t="shared" si="0"/>
+        <v>866314.31696561084</v>
+      </c>
+    </row>
+    <row r="25" spans="7:9" x14ac:dyDescent="0.35">
+      <c r="G25">
+        <v>57</v>
+      </c>
+      <c r="I25" s="1">
+        <f t="shared" si="0"/>
+        <v>925926.88964423526</v>
+      </c>
+    </row>
+    <row r="26" spans="7:9" x14ac:dyDescent="0.35">
+      <c r="G26">
+        <v>58</v>
+      </c>
+      <c r="I26" s="1">
+        <f t="shared" si="0"/>
+        <v>987923.96523000475</v>
+      </c>
+    </row>
+    <row r="27" spans="7:9" x14ac:dyDescent="0.35">
+      <c r="G27">
+        <v>59</v>
+      </c>
+      <c r="I27" s="1">
+        <f t="shared" si="0"/>
+        <v>1052400.9238392049</v>
+      </c>
+    </row>
+    <row r="28" spans="7:9" x14ac:dyDescent="0.35">
+      <c r="G28">
+        <v>60</v>
+      </c>
+      <c r="I28" s="1">
+        <f t="shared" si="0"/>
+        <v>1119456.9607927732</v>
+      </c>
+    </row>
+    <row r="29" spans="7:9" x14ac:dyDescent="0.35">
+      <c r="G29">
+        <v>61</v>
+      </c>
+      <c r="I29" s="1">
+        <f t="shared" si="0"/>
+        <v>1189195.2392244842</v>
+      </c>
+    </row>
+    <row r="30" spans="7:9" x14ac:dyDescent="0.35">
+      <c r="G30">
+        <v>62</v>
+      </c>
+      <c r="I30" s="1">
+        <f t="shared" si="0"/>
+        <v>1261723.0487934635</v>
+      </c>
+    </row>
+    <row r="31" spans="7:9" x14ac:dyDescent="0.35">
+      <c r="G31">
+        <v>63</v>
+      </c>
+      <c r="I31" s="1">
+        <f t="shared" si="0"/>
+        <v>1337151.9707452022</v>
+      </c>
+    </row>
+    <row r="32" spans="7:9" x14ac:dyDescent="0.35">
+      <c r="G32">
+        <v>64</v>
+      </c>
+      <c r="I32" s="1">
+        <f t="shared" si="0"/>
+        <v>1415598.0495750103</v>
+      </c>
+    </row>
+    <row r="33" spans="7:9" x14ac:dyDescent="0.35">
+      <c r="G33">
+        <v>65</v>
+      </c>
+      <c r="I33" s="1">
+        <f t="shared" si="0"/>
+        <v>1497181.9715580107</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>